--- a/biology/Neurosciences/Achille_Souques/Achille_Souques.xlsx
+++ b/biology/Neurosciences/Achille_Souques/Achille_Souques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Achille Cyprien Souques, né le 6 février 1860 à Peyre et mort le 24 décembre 1944 à Servon, est un médecin français, spécialiste de neurologie, membre de l'Académie de médecine (1918).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant ses études, Achille Souques est externe des hôpitaux de Paris de 1882 à 1886, puis interne de 1886 à 1890. Il se spécialise vers la neurologie sous la direction de Jean-Martin Charcot, Charles Fernet, puis Anatole Chauffard dans le service duquel il eut à soigner le poète Paul Verlaine[1]. Il est lauréat de la médaille d'or des internes en 1891.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant ses études, Achille Souques est externe des hôpitaux de Paris de 1882 à 1886, puis interne de 1886 à 1890. Il se spécialise vers la neurologie sous la direction de Jean-Martin Charcot, Charles Fernet, puis Anatole Chauffard dans le service duquel il eut à soigner le poète Paul Verlaine. Il est lauréat de la médaille d'or des internes en 1891.
 Il est moniteur d'anatomie pathologique de 1892 à 1893, puis commence sa carrière comme chef de clinique d'Édouard Brissaud puis de Fulgence Raymond de 1893 à 1895, avant d'être chef de laboratoire de la faculté de 1895 à 1899. En 1898, il est nommé médecin des hôpitaux de Paris, il exerce d'abord à l'Hôtel-Dieu, à l'hospice d'Ivry. Il succède ensuite à Pierre Marie à Bicêtre avant de devenir chef de service à la Salpêtrière.
 Pendant la Première Guerre mondiale, il ouvrit à la Salpêtrière, un service spécialisé en neurologie de guerre.
 Il est un des fondateurs de la Société de neurologie de Paris en 1899 et membre du bureau. Il est élu à l'Académie nationale de médecine en 1918.
@@ -547,9 +561,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Légion d'honneur : chevalier 11 décembre 1903, officier le 27 juin 1921[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Légion d'honneur : chevalier 11 décembre 1903, officier le 27 juin 1921.
 Membre de l'Académie nationale de médecine.</t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Souques est connu pour ses recherches approfondies sur la maladie de Parkinson, et dans un traité intitulé Rapport sur les syndromes parkinsoniens, en 1921, il a documenté l'importance de l'encéphalite léthargique comme une cause de la maladie de Parkinson. Avec son mentor Jean-Martin Charcot (1825-1893), il a décrit l'éponyme syndrome de « Souques-Charcot », qui est une variante de la maladie de Hutchinson-Gilford. Souques est également crédité de l'introduction du terme « camptocormie » pour décrire une posture avant-flexion anormale.
 </t>
@@ -609,12 +627,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Étude des syndromes hystériques simulateurs des maladies organiques de la moelle épinière, thèse présidée par Charcot en 1890.
 Infantilisme hypophysaire, avec Stéphen Chauvet (1885-1950), Nouvelle iconographie de la Salpêtrière, Paris, 1913, 26: 69-80.
 Rapport sur les syndromes parkinsoniens, Revue neurologique, Paris, 1921, 28: 534-573.
-Kinésie paradoxale, Revue neurologique, Paris, 1921, 37: 559-560[3].
+Kinésie paradoxale, Revue neurologique, Paris, 1921, 37: 559-560.
 Charcot intime, Presse médicale, 27 mai 1925, p. 693-698
 Étapes de la neurologie dans l'antiquité grecque, Paris, Masson, 1936.</t>
         </is>
@@ -644,9 +664,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Signe des cils de Souques[4]: dans la paralysie faciale fruste, les cils semblent être plus apparents du côté paralysé lors de la fermeture forcée des paupières.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Signe des cils de Souques: dans la paralysie faciale fruste, les cils semblent être plus apparents du côté paralysé lors de la fermeture forcée des paupières.
 Signe de Souques: extension involontaire et la diffusion des doigts lorsque le bras parétique des patients est élevé et étendu.
 Syndrome de Souques et Charcot : description du géromorphisme cutané.</t>
         </is>
@@ -676,7 +698,9 @@
           <t>Sources et bibliographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Alexandre-Achille Souques » (voir la liste des auteurs).</t>
         </is>
